--- a/result3.xlsx
+++ b/result3.xlsx
@@ -435,16 +435,16 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,7 +460,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>无人机运动速度</t>
+          <t>无人机运动速度[m/s]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -530,12 +530,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17784.1</t>
+          <t>17816.7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,22 +545,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17704.8</t>
+          <t>17873.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1795.1</t>
+          <t>1796.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -590,12 +590,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17665.2</t>
+          <t>17907.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -605,22 +605,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17570.0</t>
+          <t>17978.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1792.9</t>
+          <t>1795.1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -650,12 +650,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17546.2</t>
+          <t>17989.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17435.2</t>
+          <t>18074.9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>18.9</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1790.4</t>
+          <t>1792.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>354</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>72.9</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11984.7</t>
+          <t>12027.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1397.0</t>
+          <t>1397.2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -725,22 +725,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11908.2</t>
+          <t>12085.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1381.9</t>
+          <t>1391.3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1395.1</t>
+          <t>1396.9</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>72.9</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -770,12 +770,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11870.0</t>
+          <t>12109.3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1374.3</t>
+          <t>1388.9</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -785,22 +785,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11778.2</t>
+          <t>12181.9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1356.2</t>
+          <t>1381.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1392.9</t>
+          <t>1395.1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>354</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>72.9</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -830,12 +830,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11755.3</t>
+          <t>12205.3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1351.7</t>
+          <t>1379.1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11648.2</t>
+          <t>12292.4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1330.6</t>
+          <t>1370.2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1390.4</t>
+          <t>1392.9</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -890,12 +890,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5987.4</t>
+          <t>6016.9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2992.3</t>
+          <t>-2996.5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -905,22 +905,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5924.2</t>
+          <t>6077.1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-2953.7</t>
+          <t>-2983.8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>695.1</t>
+          <t>696.9</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5892.7</t>
+          <t>6120.1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2934.5</t>
+          <t>-2974.8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -965,22 +965,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5816.9</t>
+          <t>6195.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-2888.2</t>
+          <t>-2959.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>692.9</t>
+          <t>695.1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5797.9</t>
+          <t>6206.6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2876.7</t>
+          <t>-2956.6</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5709.5</t>
+          <t>6296.9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-2822.7</t>
+          <t>-2937.7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>690.4</t>
+          <t>692.9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>354</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10984.8</t>
+          <t>11028.3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1996.9</t>
+          <t>1997.2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1085,22 +1085,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10908.5</t>
+          <t>11090.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1981.6</t>
+          <t>1991.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1795.1</t>
+          <t>1796.9</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>354</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10908.5</t>
+          <t>11104.9</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1981.6</t>
+          <t>1989.6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10832.3</t>
+          <t>11182.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1966.2</t>
+          <t>1981.9</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>354</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10832.3</t>
+          <t>11222.9</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1966.2</t>
+          <t>1977.9</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10740.8</t>
+          <t>11315.9</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1947.8</t>
+          <t>1968.7</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12984.5</t>
+          <t>13010.8</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-1997.8</t>
+          <t>-1996.3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1265,22 +1265,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12907.0</t>
+          <t>13065.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-1986.9</t>
+          <t>-1977.3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1295.1</t>
+          <t>1296.9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12868.2</t>
+          <t>13089.4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1981.5</t>
+          <t>-1968.9</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1325,22 +1325,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12775.1</t>
+          <t>13157.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-1968.4</t>
+          <t>-1945.2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1292.9</t>
+          <t>1295.1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12751.9</t>
+          <t>13195.4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1965.1</t>
+          <t>-1932.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1385,22 +1385,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12643.3</t>
+          <t>13277.2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-1949.9</t>
+          <t>-1903.5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1290.4</t>
+          <t>1292.9</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">

--- a/result3.xlsx
+++ b/result3.xlsx
@@ -517,12 +517,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>360</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -530,12 +530,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17816.7</t>
+          <t>17818.4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17873.4</t>
+          <t>17878.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -590,12 +590,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17907.5</t>
+          <t>17897.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17978.3</t>
+          <t>17972.9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>360</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -650,12 +650,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17989.9</t>
+          <t>18003.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-1.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18074.9</t>
+          <t>18092.9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>341</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12027.1</t>
+          <t>12014.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1397.2</t>
+          <t>1395.1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12085.1</t>
+          <t>12067.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1391.3</t>
+          <t>1376.5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>341</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -770,12 +770,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12109.3</t>
+          <t>12094.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1388.9</t>
+          <t>1367.1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -785,12 +785,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12181.9</t>
+          <t>12160.3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1381.5</t>
+          <t>1343.8</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>341</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -830,12 +830,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12205.3</t>
+          <t>12182.1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1379.1</t>
+          <t>1336.2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12292.4</t>
+          <t>12261.8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1370.2</t>
+          <t>1308.3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -890,12 +890,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6016.9</t>
+          <t>6013.9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2996.5</t>
+          <t>-2997.4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6077.1</t>
+          <t>6076.2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-2983.8</t>
+          <t>-2985.8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6120.1</t>
+          <t>6110.1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2974.8</t>
+          <t>-2979.4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6195.3</t>
+          <t>6188.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-2959.0</t>
+          <t>-2964.9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6206.6</t>
+          <t>6208.1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2956.6</t>
+          <t>-2961.1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6296.9</t>
+          <t>6301.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-2937.7</t>
+          <t>-2943.7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11028.3</t>
+          <t>11020.7</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1997.2</t>
+          <t>1996.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11090.3</t>
+          <t>11080.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1991.0</t>
+          <t>1984.3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11104.9</t>
+          <t>11112.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1989.6</t>
+          <t>1978.2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11182.4</t>
+          <t>11186.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1981.9</t>
+          <t>1963.6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11222.9</t>
+          <t>11198.8</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1977.9</t>
+          <t>1961.2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11315.9</t>
+          <t>11288.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1968.7</t>
+          <t>1943.8</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13010.8</t>
+          <t>13022.8</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-1996.3</t>
+          <t>-1994.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13065.3</t>
+          <t>13080.9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-1977.3</t>
+          <t>-1978.7</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13089.4</t>
+          <t>13114.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1968.9</t>
+          <t>-1970.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13157.6</t>
+          <t>13186.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-1945.2</t>
+          <t>-1951.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13195.4</t>
+          <t>13191.4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1932.0</t>
+          <t>-1949.7</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13277.2</t>
+          <t>13278.5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-1903.5</t>
+          <t>-1926.8</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
